--- a/tools/batch/data.xlsx
+++ b/tools/batch/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirapatmalai/Works/WMA201AM1/tools/batch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01645C6-0651-6448-863E-CE29DDFE6AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E10FC64-866B-E34F-94A0-B1666FA6DE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="2660" windowWidth="50020" windowHeight="24580" xr2:uid="{5CC4CB15-EEE0-0140-A99A-A16EB32EE638}"/>
   </bookViews>
@@ -4380,9 +4380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AC10AD-450C-6348-AD55-C27A5C16FB44}">
   <dimension ref="A1:AC323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V300" sqref="V300"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F323" sqref="F245:F323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4390,6 +4390,7 @@
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" customWidth="1"/>
     <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.1640625" customWidth="1"/>
     <col min="25" max="25" width="43.33203125" bestFit="1" customWidth="1"/>
